--- a/my_code/data/scores/scores.xlsx
+++ b/my_code/data/scores/scores.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20350"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD814A71-7029-458C-9912-525ABB9D0EFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC5BF2A-8EEE-46FE-A7A7-87EB601E104E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="799" firstSheet="14" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="799" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tour05" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="tour25" sheetId="25" r:id="rId20"/>
     <sheet name="tour26" sheetId="26" r:id="rId21"/>
     <sheet name="tour27" sheetId="27" r:id="rId22"/>
+    <sheet name="tour28" sheetId="28" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="76">
   <si>
     <t>Lundström</t>
   </si>
@@ -33213,7 +33214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70ABC937-337A-43FA-B554-4F49221BAEBD}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
@@ -35042,6 +35043,2133 @@
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F57D749-1407-43F0-BE8B-02FAED343C4E}">
+  <dimension ref="A1:J69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="11.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6">
+        <v>7</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6">
+        <v>6</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6">
+        <v>4</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>6</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6">
+        <v>8</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>5</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6">
+        <v>7</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6">
+        <v>8</v>
+      </c>
+      <c r="I14" s="6">
+        <v>7</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>6</v>
+      </c>
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" s="6">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6">
+        <v>7</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4</v>
+      </c>
+      <c r="H16" s="6">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
+        <v>4</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6">
+        <v>7</v>
+      </c>
+      <c r="G17" s="6">
+        <v>8</v>
+      </c>
+      <c r="H17" s="6">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6">
+        <v>9</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6">
+        <v>7</v>
+      </c>
+      <c r="G18" s="6">
+        <v>6</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6</v>
+      </c>
+      <c r="I18" s="6">
+        <v>6</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>4</v>
+      </c>
+      <c r="G19" s="6">
+        <v>8</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6">
+        <v>6</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6">
+        <v>6</v>
+      </c>
+      <c r="G20" s="6">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6">
+        <v>5</v>
+      </c>
+      <c r="I20" s="6">
+        <v>8</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6">
+        <f>SUM(B3:B11)</f>
+        <v>44</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:G21" si="0">SUM(C3:C11)</f>
+        <v>56</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" ref="H21:I21" si="1">SUM(H3:H11)</f>
+        <v>49</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6">
+        <f>SUM(B12:B20)</f>
+        <v>48</v>
+      </c>
+      <c r="C22" s="6">
+        <f>SUM(C12:C20)</f>
+        <v>50</v>
+      </c>
+      <c r="D22" s="6">
+        <f>SUM(D12:D20)</f>
+        <v>57</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" ref="E22:G22" si="2">SUM(E12:E20)</f>
+        <v>58</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" ref="H22:I22" si="3">SUM(H12:H20)</f>
+        <v>46</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6">
+        <f>SUM(B3:B20)</f>
+        <v>92</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" ref="C23:E23" si="4">SUM(C3:C20)</f>
+        <v>106</v>
+      </c>
+      <c r="D23" s="6">
+        <f>SUM(D3:D20)</f>
+        <v>110</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="F23" s="6">
+        <f>SUM(F3:F20)</f>
+        <v>94</v>
+      </c>
+      <c r="G23" s="6">
+        <f>SUM(G3:G20)</f>
+        <v>115</v>
+      </c>
+      <c r="H23" s="6">
+        <f>SUM(H3:H20)</f>
+        <v>95</v>
+      </c>
+      <c r="I23" s="6">
+        <f>SUM(I3:I20)</f>
+        <v>110</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5">
+        <v>28</v>
+      </c>
+      <c r="D25" s="5">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5">
+        <v>27</v>
+      </c>
+      <c r="F25" s="5">
+        <v>18</v>
+      </c>
+      <c r="G25" s="5">
+        <v>23</v>
+      </c>
+      <c r="H25" s="5">
+        <v>23</v>
+      </c>
+      <c r="I25" s="5">
+        <v>24</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="6">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6">
+        <v>7</v>
+      </c>
+      <c r="F26" s="6">
+        <v>6</v>
+      </c>
+      <c r="G26" s="6">
+        <v>7</v>
+      </c>
+      <c r="H26" s="6">
+        <v>6</v>
+      </c>
+      <c r="I26" s="6">
+        <v>9</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="6">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6">
+        <v>6</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6">
+        <v>5</v>
+      </c>
+      <c r="H27" s="6">
+        <v>5</v>
+      </c>
+      <c r="I27" s="6">
+        <v>6</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6">
+        <v>9</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6">
+        <v>6</v>
+      </c>
+      <c r="F28" s="6">
+        <v>6</v>
+      </c>
+      <c r="G28" s="6">
+        <v>8</v>
+      </c>
+      <c r="H28" s="6">
+        <v>5</v>
+      </c>
+      <c r="I28" s="6">
+        <v>9</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="6">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6">
+        <v>4</v>
+      </c>
+      <c r="F29" s="6">
+        <v>5</v>
+      </c>
+      <c r="G29" s="6">
+        <v>5</v>
+      </c>
+      <c r="H29" s="6">
+        <v>5</v>
+      </c>
+      <c r="I29" s="6">
+        <v>6</v>
+      </c>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6">
+        <v>6</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5</v>
+      </c>
+      <c r="G30" s="6">
+        <v>7</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4</v>
+      </c>
+      <c r="I30" s="6">
+        <v>6</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="6">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6">
+        <v>7</v>
+      </c>
+      <c r="F31" s="6">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6">
+        <v>7</v>
+      </c>
+      <c r="H31" s="6">
+        <v>8</v>
+      </c>
+      <c r="I31" s="6">
+        <v>8</v>
+      </c>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="6">
+        <v>5</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3</v>
+      </c>
+      <c r="F32" s="6">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6">
+        <v>8</v>
+      </c>
+      <c r="H32" s="6">
+        <v>4</v>
+      </c>
+      <c r="I32" s="6">
+        <v>8</v>
+      </c>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="6">
+        <v>6</v>
+      </c>
+      <c r="C33" s="6">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6">
+        <v>6</v>
+      </c>
+      <c r="E33" s="6">
+        <v>7</v>
+      </c>
+      <c r="F33" s="6">
+        <v>6</v>
+      </c>
+      <c r="G33" s="6">
+        <v>4</v>
+      </c>
+      <c r="H33" s="6">
+        <v>9</v>
+      </c>
+      <c r="I33" s="6">
+        <v>6</v>
+      </c>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="6">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6">
+        <v>8</v>
+      </c>
+      <c r="D34" s="6">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6">
+        <v>8</v>
+      </c>
+      <c r="F34" s="6">
+        <v>8</v>
+      </c>
+      <c r="G34" s="6">
+        <v>8</v>
+      </c>
+      <c r="H34" s="6">
+        <v>6</v>
+      </c>
+      <c r="I34" s="6">
+        <v>9</v>
+      </c>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="6">
+        <v>6</v>
+      </c>
+      <c r="C35" s="6">
+        <v>8</v>
+      </c>
+      <c r="D35" s="6">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6">
+        <v>6</v>
+      </c>
+      <c r="F35" s="6">
+        <v>6</v>
+      </c>
+      <c r="G35" s="6">
+        <v>6</v>
+      </c>
+      <c r="H35" s="6">
+        <v>6</v>
+      </c>
+      <c r="I35" s="6">
+        <v>5</v>
+      </c>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="6">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6">
+        <v>4</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4</v>
+      </c>
+      <c r="F36" s="6">
+        <v>4</v>
+      </c>
+      <c r="G36" s="6">
+        <v>4</v>
+      </c>
+      <c r="H36" s="6">
+        <v>4</v>
+      </c>
+      <c r="I36" s="6">
+        <v>3</v>
+      </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="6">
+        <v>6</v>
+      </c>
+      <c r="C37" s="6">
+        <v>8</v>
+      </c>
+      <c r="D37" s="6">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6">
+        <v>10</v>
+      </c>
+      <c r="F37" s="6">
+        <v>6</v>
+      </c>
+      <c r="G37" s="6">
+        <v>7</v>
+      </c>
+      <c r="H37" s="6">
+        <v>6</v>
+      </c>
+      <c r="I37" s="6">
+        <v>6</v>
+      </c>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6">
+        <v>4</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3</v>
+      </c>
+      <c r="G38" s="6">
+        <v>4</v>
+      </c>
+      <c r="H38" s="6">
+        <v>3</v>
+      </c>
+      <c r="I38" s="6">
+        <v>8</v>
+      </c>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="6">
+        <v>6</v>
+      </c>
+      <c r="C39" s="6">
+        <v>7</v>
+      </c>
+      <c r="D39" s="6">
+        <v>9</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5</v>
+      </c>
+      <c r="F39" s="6">
+        <v>5</v>
+      </c>
+      <c r="G39" s="6">
+        <v>8</v>
+      </c>
+      <c r="H39" s="6">
+        <v>6</v>
+      </c>
+      <c r="I39" s="6">
+        <v>6</v>
+      </c>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="6">
+        <v>6</v>
+      </c>
+      <c r="C40" s="6">
+        <v>5</v>
+      </c>
+      <c r="D40" s="6">
+        <v>6</v>
+      </c>
+      <c r="E40" s="6">
+        <v>7</v>
+      </c>
+      <c r="F40" s="6">
+        <v>5</v>
+      </c>
+      <c r="G40" s="6">
+        <v>5</v>
+      </c>
+      <c r="H40" s="6">
+        <v>8</v>
+      </c>
+      <c r="I40" s="6">
+        <v>7</v>
+      </c>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="6">
+        <v>5</v>
+      </c>
+      <c r="C41" s="6">
+        <v>7</v>
+      </c>
+      <c r="D41" s="6">
+        <v>7</v>
+      </c>
+      <c r="E41" s="6">
+        <v>6</v>
+      </c>
+      <c r="F41" s="6">
+        <v>6</v>
+      </c>
+      <c r="G41" s="6">
+        <v>5</v>
+      </c>
+      <c r="H41" s="6">
+        <v>6</v>
+      </c>
+      <c r="I41" s="6">
+        <v>7</v>
+      </c>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="6">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6">
+        <v>9</v>
+      </c>
+      <c r="D42" s="6">
+        <v>7</v>
+      </c>
+      <c r="E42" s="6">
+        <v>5</v>
+      </c>
+      <c r="F42" s="6">
+        <v>4</v>
+      </c>
+      <c r="G42" s="6">
+        <v>9</v>
+      </c>
+      <c r="H42" s="6">
+        <v>6</v>
+      </c>
+      <c r="I42" s="6">
+        <v>5</v>
+      </c>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="6">
+        <v>6</v>
+      </c>
+      <c r="C43" s="6">
+        <v>8</v>
+      </c>
+      <c r="D43" s="6">
+        <v>8</v>
+      </c>
+      <c r="E43" s="6">
+        <v>8</v>
+      </c>
+      <c r="F43" s="6">
+        <v>7</v>
+      </c>
+      <c r="G43" s="6">
+        <v>10</v>
+      </c>
+      <c r="H43" s="6">
+        <v>9</v>
+      </c>
+      <c r="I43" s="6">
+        <v>6</v>
+      </c>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="6">
+        <f t="shared" ref="B44:G44" si="5">SUM(B26:B34)</f>
+        <v>54</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="H44" s="6">
+        <f t="shared" ref="H44:I44" si="6">SUM(H26:H34)</f>
+        <v>52</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="6">
+        <f t="shared" ref="B45:G45" si="7">SUM(B35:B43)</f>
+        <v>46</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="H45" s="6">
+        <f t="shared" ref="H45:I45" si="8">SUM(H35:H43)</f>
+        <v>54</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="6">
+        <f>SUM(B44:B45)</f>
+        <v>100</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" ref="C46:G46" si="9">SUM(C44:C45)</f>
+        <v>114</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="9"/>
+        <v>117</v>
+      </c>
+      <c r="H46" s="6">
+        <f t="shared" ref="H46:I46" si="10">SUM(H44:H45)</f>
+        <v>106</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="5">
+        <v>22</v>
+      </c>
+      <c r="C48" s="5">
+        <v>28</v>
+      </c>
+      <c r="D48" s="5">
+        <v>25</v>
+      </c>
+      <c r="E48" s="5">
+        <v>27</v>
+      </c>
+      <c r="F48" s="5">
+        <v>18</v>
+      </c>
+      <c r="G48" s="5">
+        <v>24</v>
+      </c>
+      <c r="H48" s="5">
+        <v>23</v>
+      </c>
+      <c r="I48" s="5">
+        <v>25</v>
+      </c>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="6">
+        <v>6</v>
+      </c>
+      <c r="C49" s="6">
+        <v>9</v>
+      </c>
+      <c r="D49" s="6">
+        <v>7</v>
+      </c>
+      <c r="E49" s="6">
+        <v>6</v>
+      </c>
+      <c r="F49" s="6">
+        <v>7</v>
+      </c>
+      <c r="G49" s="6">
+        <v>6</v>
+      </c>
+      <c r="H49" s="6">
+        <v>7</v>
+      </c>
+      <c r="I49" s="6">
+        <v>6</v>
+      </c>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="6">
+        <v>5</v>
+      </c>
+      <c r="C50" s="6">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6">
+        <v>5</v>
+      </c>
+      <c r="E50" s="6">
+        <v>5</v>
+      </c>
+      <c r="F50" s="6">
+        <v>4</v>
+      </c>
+      <c r="G50" s="6">
+        <v>6</v>
+      </c>
+      <c r="H50" s="6">
+        <v>6</v>
+      </c>
+      <c r="I50" s="6">
+        <v>6</v>
+      </c>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="6">
+        <v>5</v>
+      </c>
+      <c r="C51" s="6">
+        <v>4</v>
+      </c>
+      <c r="D51" s="6">
+        <v>4</v>
+      </c>
+      <c r="E51" s="6">
+        <v>5</v>
+      </c>
+      <c r="F51" s="6">
+        <v>4</v>
+      </c>
+      <c r="G51" s="6">
+        <v>3</v>
+      </c>
+      <c r="H51" s="6">
+        <v>4</v>
+      </c>
+      <c r="I51" s="6">
+        <v>5</v>
+      </c>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="6">
+        <v>7</v>
+      </c>
+      <c r="C52" s="6">
+        <v>6</v>
+      </c>
+      <c r="D52" s="6">
+        <v>10</v>
+      </c>
+      <c r="E52" s="6">
+        <v>7</v>
+      </c>
+      <c r="F52" s="6">
+        <v>7</v>
+      </c>
+      <c r="G52" s="6">
+        <v>8</v>
+      </c>
+      <c r="H52" s="6">
+        <v>7</v>
+      </c>
+      <c r="I52" s="6">
+        <v>8</v>
+      </c>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="6">
+        <v>8</v>
+      </c>
+      <c r="C53" s="6">
+        <v>5</v>
+      </c>
+      <c r="D53" s="6">
+        <v>4</v>
+      </c>
+      <c r="E53" s="6">
+        <v>4</v>
+      </c>
+      <c r="F53" s="6">
+        <v>3</v>
+      </c>
+      <c r="G53" s="6">
+        <v>4</v>
+      </c>
+      <c r="H53" s="6">
+        <v>4</v>
+      </c>
+      <c r="I53" s="6">
+        <v>4</v>
+      </c>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="6">
+        <v>5</v>
+      </c>
+      <c r="C54" s="6">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6">
+        <v>8</v>
+      </c>
+      <c r="E54" s="6">
+        <v>9</v>
+      </c>
+      <c r="F54" s="6">
+        <v>5</v>
+      </c>
+      <c r="G54" s="6">
+        <v>5</v>
+      </c>
+      <c r="H54" s="6">
+        <v>6</v>
+      </c>
+      <c r="I54" s="6">
+        <v>9</v>
+      </c>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="6">
+        <v>5</v>
+      </c>
+      <c r="C55" s="6">
+        <v>7</v>
+      </c>
+      <c r="D55" s="6">
+        <v>7</v>
+      </c>
+      <c r="E55" s="6">
+        <v>7</v>
+      </c>
+      <c r="F55" s="6">
+        <v>5</v>
+      </c>
+      <c r="G55" s="6">
+        <v>8</v>
+      </c>
+      <c r="H55" s="6">
+        <v>7</v>
+      </c>
+      <c r="I55" s="6">
+        <v>6</v>
+      </c>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="6">
+        <v>5</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3</v>
+      </c>
+      <c r="D56" s="6">
+        <v>3</v>
+      </c>
+      <c r="E56" s="6">
+        <v>4</v>
+      </c>
+      <c r="F56" s="6">
+        <v>3</v>
+      </c>
+      <c r="G56" s="6">
+        <v>4</v>
+      </c>
+      <c r="H56" s="6">
+        <v>3</v>
+      </c>
+      <c r="I56" s="6">
+        <v>5</v>
+      </c>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="6">
+        <v>7</v>
+      </c>
+      <c r="C57" s="6">
+        <v>6</v>
+      </c>
+      <c r="D57" s="6">
+        <v>6</v>
+      </c>
+      <c r="E57" s="6">
+        <v>6</v>
+      </c>
+      <c r="F57" s="6">
+        <v>6</v>
+      </c>
+      <c r="G57" s="6">
+        <v>7</v>
+      </c>
+      <c r="H57" s="6">
+        <v>7</v>
+      </c>
+      <c r="I57" s="6">
+        <v>7</v>
+      </c>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="6">
+        <v>7</v>
+      </c>
+      <c r="C58" s="6">
+        <v>7</v>
+      </c>
+      <c r="D58" s="6">
+        <v>6</v>
+      </c>
+      <c r="E58" s="6">
+        <v>8</v>
+      </c>
+      <c r="F58" s="6">
+        <v>5</v>
+      </c>
+      <c r="G58" s="6">
+        <v>7</v>
+      </c>
+      <c r="H58" s="6">
+        <v>6</v>
+      </c>
+      <c r="I58" s="6">
+        <v>7</v>
+      </c>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="6">
+        <v>3</v>
+      </c>
+      <c r="C59" s="6">
+        <v>3</v>
+      </c>
+      <c r="D59" s="6">
+        <v>6</v>
+      </c>
+      <c r="E59" s="6">
+        <v>5</v>
+      </c>
+      <c r="F59" s="6">
+        <v>5</v>
+      </c>
+      <c r="G59" s="6">
+        <v>4</v>
+      </c>
+      <c r="H59" s="6">
+        <v>4</v>
+      </c>
+      <c r="I59" s="6">
+        <v>4</v>
+      </c>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="6">
+        <v>9</v>
+      </c>
+      <c r="C60" s="6">
+        <v>8</v>
+      </c>
+      <c r="D60" s="6">
+        <v>6</v>
+      </c>
+      <c r="E60" s="6">
+        <v>5</v>
+      </c>
+      <c r="F60" s="6">
+        <v>5</v>
+      </c>
+      <c r="G60" s="6">
+        <v>5</v>
+      </c>
+      <c r="H60" s="6">
+        <v>6</v>
+      </c>
+      <c r="I60" s="6">
+        <v>8</v>
+      </c>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="6">
+        <v>3</v>
+      </c>
+      <c r="C61" s="6">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6">
+        <v>4</v>
+      </c>
+      <c r="E61" s="6">
+        <v>4</v>
+      </c>
+      <c r="F61" s="6">
+        <v>5</v>
+      </c>
+      <c r="G61" s="6">
+        <v>8</v>
+      </c>
+      <c r="H61" s="6">
+        <v>4</v>
+      </c>
+      <c r="I61" s="6">
+        <v>5</v>
+      </c>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="6">
+        <v>6</v>
+      </c>
+      <c r="C62" s="6">
+        <v>4</v>
+      </c>
+      <c r="D62" s="6">
+        <v>6</v>
+      </c>
+      <c r="E62" s="6">
+        <v>6</v>
+      </c>
+      <c r="F62" s="6">
+        <v>5</v>
+      </c>
+      <c r="G62" s="6">
+        <v>6</v>
+      </c>
+      <c r="H62" s="6">
+        <v>5</v>
+      </c>
+      <c r="I62" s="6">
+        <v>6</v>
+      </c>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="6">
+        <v>6</v>
+      </c>
+      <c r="C63" s="6">
+        <v>8</v>
+      </c>
+      <c r="D63" s="6">
+        <v>7</v>
+      </c>
+      <c r="E63" s="6">
+        <v>8</v>
+      </c>
+      <c r="F63" s="6">
+        <v>7</v>
+      </c>
+      <c r="G63" s="6">
+        <v>8</v>
+      </c>
+      <c r="H63" s="6">
+        <v>7</v>
+      </c>
+      <c r="I63" s="6">
+        <v>6</v>
+      </c>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="6">
+        <v>6</v>
+      </c>
+      <c r="C64" s="6">
+        <v>4</v>
+      </c>
+      <c r="D64" s="6">
+        <v>5</v>
+      </c>
+      <c r="E64" s="6">
+        <v>8</v>
+      </c>
+      <c r="F64" s="6">
+        <v>6</v>
+      </c>
+      <c r="G64" s="6">
+        <v>5</v>
+      </c>
+      <c r="H64" s="6">
+        <v>5</v>
+      </c>
+      <c r="I64" s="6">
+        <v>4</v>
+      </c>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="6">
+        <v>7</v>
+      </c>
+      <c r="C65" s="6">
+        <v>5</v>
+      </c>
+      <c r="D65" s="6">
+        <v>6</v>
+      </c>
+      <c r="E65" s="6">
+        <v>7</v>
+      </c>
+      <c r="F65" s="6">
+        <v>5</v>
+      </c>
+      <c r="G65" s="6">
+        <v>9</v>
+      </c>
+      <c r="H65" s="6">
+        <v>8</v>
+      </c>
+      <c r="I65" s="6">
+        <v>6</v>
+      </c>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A66" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="6">
+        <v>6</v>
+      </c>
+      <c r="C66" s="6">
+        <v>6</v>
+      </c>
+      <c r="D66" s="6">
+        <v>6</v>
+      </c>
+      <c r="E66" s="6">
+        <v>6</v>
+      </c>
+      <c r="F66" s="6">
+        <v>7</v>
+      </c>
+      <c r="G66" s="6">
+        <v>5</v>
+      </c>
+      <c r="H66" s="6">
+        <v>6</v>
+      </c>
+      <c r="I66" s="6">
+        <v>6</v>
+      </c>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="6">
+        <f>SUM(B49:B57)</f>
+        <v>53</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" ref="C67:G67" si="11">SUM(C49:C57)</f>
+        <v>50</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="E67" s="6">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="11"/>
+        <v>44</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="11"/>
+        <v>51</v>
+      </c>
+      <c r="H67" s="6">
+        <f t="shared" ref="H67:I67" si="12">SUM(H49:H57)</f>
+        <v>51</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="6">
+        <f>SUM(B58:B66)</f>
+        <v>53</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" ref="C68:G68" si="13">SUM(C58:C66)</f>
+        <v>52</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="13"/>
+        <v>52</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="13"/>
+        <v>57</v>
+      </c>
+      <c r="F68" s="6">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="13"/>
+        <v>57</v>
+      </c>
+      <c r="H68" s="6">
+        <f t="shared" ref="H68:I68" si="14">SUM(H58:H66)</f>
+        <v>51</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="6">
+        <f>SUM(B49:B66)</f>
+        <v>106</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" ref="C69:G69" si="15">SUM(C49:C66)</f>
+        <v>102</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" si="15"/>
+        <v>106</v>
+      </c>
+      <c r="E69" s="6">
+        <f t="shared" si="15"/>
+        <v>110</v>
+      </c>
+      <c r="F69" s="6">
+        <f t="shared" si="15"/>
+        <v>94</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="15"/>
+        <v>108</v>
+      </c>
+      <c r="H69" s="6">
+        <f t="shared" ref="H69:I69" si="16">SUM(H49:H66)</f>
+        <v>102</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" si="16"/>
+        <v>108</v>
+      </c>
       <c r="J69" s="6"/>
     </row>
   </sheetData>

--- a/my_code/data/scores/scores.xlsx
+++ b/my_code/data/scores/scores.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20356"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF490DA-187E-42B2-9B5C-7CEB0D39DBEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31E46D9-4416-4594-8D22-F47D205F1CFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="799" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="799" firstSheet="14" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tour05" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="tour27" sheetId="27" r:id="rId22"/>
     <sheet name="tour28" sheetId="28" r:id="rId23"/>
     <sheet name="tour29" sheetId="29" r:id="rId24"/>
+    <sheet name="tour30" sheetId="30" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="76">
   <si>
     <t>Lundström</t>
   </si>
@@ -37183,7 +37184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14137B76-9563-4B2E-82DF-DD721032974E}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
@@ -39087,6 +39088,1709 @@
         <v>106</v>
       </c>
       <c r="I69" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C1628E-5FBF-465B-9B87-55773B600542}">
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6</v>
+      </c>
+      <c r="F16" s="6">
+        <v>7</v>
+      </c>
+      <c r="G16" s="6">
+        <v>7</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6</v>
+      </c>
+      <c r="G17" s="6">
+        <v>9</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>4</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>6</v>
+      </c>
+      <c r="G20" s="6">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6">
+        <f>SUM(B3:B11)</f>
+        <v>50</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:G21" si="0">SUM(C3:C11)</f>
+        <v>50</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="6">
+        <f>SUM(E3:E11)</f>
+        <v>48</v>
+      </c>
+      <c r="F21" s="6">
+        <f>SUM(F3:F11)</f>
+        <v>57</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6">
+        <f>SUM(B12:B20)</f>
+        <v>48</v>
+      </c>
+      <c r="C22" s="6">
+        <f>SUM(C12:C20)</f>
+        <v>50</v>
+      </c>
+      <c r="D22" s="6">
+        <f>SUM(D12:D20)</f>
+        <v>53</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" ref="E22:G22" si="1">SUM(E12:E20)</f>
+        <v>47</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6">
+        <f>SUM(B3:B20)</f>
+        <v>98</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" ref="C23" si="2">SUM(C3:C20)</f>
+        <v>100</v>
+      </c>
+      <c r="D23" s="6">
+        <f>SUM(D3:D20)</f>
+        <v>103</v>
+      </c>
+      <c r="E23" s="6">
+        <f>SUM(E3:E20)</f>
+        <v>95</v>
+      </c>
+      <c r="F23" s="6">
+        <f>SUM(F3:F20)</f>
+        <v>109</v>
+      </c>
+      <c r="G23" s="6">
+        <f>SUM(G3:G20)</f>
+        <v>122</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5">
+        <v>27</v>
+      </c>
+      <c r="D25" s="5">
+        <v>30</v>
+      </c>
+      <c r="E25" s="5">
+        <v>19</v>
+      </c>
+      <c r="F25" s="5">
+        <v>26</v>
+      </c>
+      <c r="G25" s="5">
+        <v>23</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="6">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6">
+        <v>6</v>
+      </c>
+      <c r="E26" s="6">
+        <v>6</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6">
+        <v>6</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="6">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6">
+        <v>6</v>
+      </c>
+      <c r="F27" s="6">
+        <v>8</v>
+      </c>
+      <c r="G27" s="6">
+        <v>6</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6">
+        <v>7</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5</v>
+      </c>
+      <c r="G28" s="6">
+        <v>5</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="6">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6">
+        <v>7</v>
+      </c>
+      <c r="D29" s="6">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6">
+        <v>8</v>
+      </c>
+      <c r="F29" s="6">
+        <v>5</v>
+      </c>
+      <c r="G29" s="6">
+        <v>7</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3</v>
+      </c>
+      <c r="E30" s="6">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6">
+        <v>3</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="6">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6">
+        <v>7</v>
+      </c>
+      <c r="E31" s="6">
+        <v>5</v>
+      </c>
+      <c r="F31" s="6">
+        <v>8</v>
+      </c>
+      <c r="G31" s="6">
+        <v>9</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="6">
+        <v>7</v>
+      </c>
+      <c r="C32" s="6">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>5</v>
+      </c>
+      <c r="E32" s="6">
+        <v>6</v>
+      </c>
+      <c r="F32" s="6">
+        <v>7</v>
+      </c>
+      <c r="G32" s="6">
+        <v>7</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="6">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6">
+        <v>4</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4</v>
+      </c>
+      <c r="E33" s="6">
+        <v>6</v>
+      </c>
+      <c r="F33" s="6">
+        <v>6</v>
+      </c>
+      <c r="G33" s="6">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="6">
+        <v>6</v>
+      </c>
+      <c r="C34" s="6">
+        <v>7</v>
+      </c>
+      <c r="D34" s="6">
+        <v>7</v>
+      </c>
+      <c r="E34" s="6">
+        <v>5</v>
+      </c>
+      <c r="F34" s="6">
+        <v>4</v>
+      </c>
+      <c r="G34" s="6">
+        <v>7</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="6">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6">
+        <v>9</v>
+      </c>
+      <c r="D35" s="6">
+        <v>6</v>
+      </c>
+      <c r="E35" s="6">
+        <v>6</v>
+      </c>
+      <c r="F35" s="6">
+        <v>5</v>
+      </c>
+      <c r="G35" s="6">
+        <v>5</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="6">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6">
+        <v>7</v>
+      </c>
+      <c r="D36" s="6">
+        <v>5</v>
+      </c>
+      <c r="E36" s="6">
+        <v>7</v>
+      </c>
+      <c r="F36" s="6">
+        <v>6</v>
+      </c>
+      <c r="G36" s="6">
+        <v>5</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="6">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6">
+        <v>5</v>
+      </c>
+      <c r="F37" s="6">
+        <v>5</v>
+      </c>
+      <c r="G37" s="6">
+        <v>6</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6">
+        <v>4</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3</v>
+      </c>
+      <c r="G38" s="6">
+        <v>5</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="6">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6">
+        <v>8</v>
+      </c>
+      <c r="D39" s="6">
+        <v>6</v>
+      </c>
+      <c r="E39" s="6">
+        <v>8</v>
+      </c>
+      <c r="F39" s="6">
+        <v>5</v>
+      </c>
+      <c r="G39" s="6">
+        <v>7</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="6">
+        <v>5</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6">
+        <v>4</v>
+      </c>
+      <c r="E40" s="6">
+        <v>5</v>
+      </c>
+      <c r="F40" s="6">
+        <v>8</v>
+      </c>
+      <c r="G40" s="6">
+        <v>4</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="6">
+        <v>4</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6">
+        <v>4</v>
+      </c>
+      <c r="F41" s="6">
+        <v>3</v>
+      </c>
+      <c r="G41" s="6">
+        <v>5</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="6">
+        <v>6</v>
+      </c>
+      <c r="C42" s="6">
+        <v>6</v>
+      </c>
+      <c r="D42" s="6">
+        <v>6</v>
+      </c>
+      <c r="E42" s="6">
+        <v>7</v>
+      </c>
+      <c r="F42" s="6">
+        <v>5</v>
+      </c>
+      <c r="G42" s="6">
+        <v>4</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="6">
+        <v>6</v>
+      </c>
+      <c r="C43" s="6">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6">
+        <v>8</v>
+      </c>
+      <c r="E43" s="6">
+        <v>9</v>
+      </c>
+      <c r="F43" s="6">
+        <v>6</v>
+      </c>
+      <c r="G43" s="6">
+        <v>7</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="6">
+        <f t="shared" ref="B44:G44" si="3">SUM(B26:B34)</f>
+        <v>53</v>
+      </c>
+      <c r="C44" s="6">
+        <f>SUM(C26:C34)</f>
+        <v>51</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="6">
+        <f t="shared" ref="B45:G45" si="4">SUM(B35:B43)</f>
+        <v>55</v>
+      </c>
+      <c r="C45" s="6">
+        <f>SUM(C35:C43)</f>
+        <v>55</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="6">
+        <f>SUM(B44:B45)</f>
+        <v>108</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" ref="C46:G46" si="5">SUM(C44:C45)</f>
+        <v>106</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="5">
+        <v>23</v>
+      </c>
+      <c r="C48" s="5">
+        <v>26</v>
+      </c>
+      <c r="D48" s="5">
+        <v>29</v>
+      </c>
+      <c r="E48" s="5">
+        <v>18</v>
+      </c>
+      <c r="F48" s="5">
+        <v>24</v>
+      </c>
+      <c r="G48" s="5">
+        <v>23</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="6">
+        <v>6</v>
+      </c>
+      <c r="C49" s="6">
+        <v>7</v>
+      </c>
+      <c r="D49" s="6">
+        <v>7</v>
+      </c>
+      <c r="E49" s="6">
+        <v>6</v>
+      </c>
+      <c r="F49" s="6">
+        <v>7</v>
+      </c>
+      <c r="G49" s="6">
+        <v>6</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="6">
+        <v>3</v>
+      </c>
+      <c r="C50" s="6">
+        <v>7</v>
+      </c>
+      <c r="D50" s="6">
+        <v>6</v>
+      </c>
+      <c r="E50" s="6">
+        <v>3</v>
+      </c>
+      <c r="F50" s="6">
+        <v>3</v>
+      </c>
+      <c r="G50" s="6">
+        <v>4</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="6">
+        <v>7</v>
+      </c>
+      <c r="C51" s="6">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6">
+        <v>7</v>
+      </c>
+      <c r="E51" s="6">
+        <v>6</v>
+      </c>
+      <c r="F51" s="6">
+        <v>6</v>
+      </c>
+      <c r="G51" s="6">
+        <v>7</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="6">
+        <v>7</v>
+      </c>
+      <c r="C52" s="6">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6">
+        <v>6</v>
+      </c>
+      <c r="E52" s="6">
+        <v>6</v>
+      </c>
+      <c r="F52" s="6">
+        <v>7</v>
+      </c>
+      <c r="G52" s="6">
+        <v>6</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="6">
+        <v>4</v>
+      </c>
+      <c r="C53" s="6">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6">
+        <v>4</v>
+      </c>
+      <c r="E53" s="6">
+        <v>4</v>
+      </c>
+      <c r="F53" s="6">
+        <v>3</v>
+      </c>
+      <c r="G53" s="6">
+        <v>4</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="6">
+        <v>6</v>
+      </c>
+      <c r="C54" s="6">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6">
+        <v>6</v>
+      </c>
+      <c r="E54" s="6">
+        <v>5</v>
+      </c>
+      <c r="F54" s="6">
+        <v>5</v>
+      </c>
+      <c r="G54" s="6">
+        <v>8</v>
+      </c>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="6">
+        <v>7</v>
+      </c>
+      <c r="C55" s="6">
+        <v>8</v>
+      </c>
+      <c r="D55" s="6">
+        <v>7</v>
+      </c>
+      <c r="E55" s="6">
+        <v>7</v>
+      </c>
+      <c r="F55" s="6">
+        <v>9</v>
+      </c>
+      <c r="G55" s="6">
+        <v>9</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="6">
+        <v>5</v>
+      </c>
+      <c r="C56" s="6">
+        <v>7</v>
+      </c>
+      <c r="D56" s="6">
+        <v>6</v>
+      </c>
+      <c r="E56" s="6">
+        <v>7</v>
+      </c>
+      <c r="F56" s="6">
+        <v>5</v>
+      </c>
+      <c r="G56" s="6">
+        <v>7</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="6">
+        <v>8</v>
+      </c>
+      <c r="C57" s="6">
+        <v>7</v>
+      </c>
+      <c r="D57" s="6">
+        <v>7</v>
+      </c>
+      <c r="E57" s="6">
+        <v>6</v>
+      </c>
+      <c r="F57" s="6">
+        <v>7</v>
+      </c>
+      <c r="G57" s="6">
+        <v>5</v>
+      </c>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="6">
+        <v>9</v>
+      </c>
+      <c r="C58" s="6">
+        <v>8</v>
+      </c>
+      <c r="D58" s="6">
+        <v>6</v>
+      </c>
+      <c r="E58" s="6">
+        <v>5</v>
+      </c>
+      <c r="F58" s="6">
+        <v>5</v>
+      </c>
+      <c r="G58" s="6">
+        <v>5</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="6">
+        <v>4</v>
+      </c>
+      <c r="C59" s="6">
+        <v>3</v>
+      </c>
+      <c r="D59" s="6">
+        <v>5</v>
+      </c>
+      <c r="E59" s="6">
+        <v>4</v>
+      </c>
+      <c r="F59" s="6">
+        <v>4</v>
+      </c>
+      <c r="G59" s="6">
+        <v>3</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="6">
+        <v>7</v>
+      </c>
+      <c r="C60" s="6">
+        <v>6</v>
+      </c>
+      <c r="D60" s="6">
+        <v>7</v>
+      </c>
+      <c r="E60" s="6">
+        <v>7</v>
+      </c>
+      <c r="F60" s="6">
+        <v>8</v>
+      </c>
+      <c r="G60" s="6">
+        <v>8</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="6">
+        <v>4</v>
+      </c>
+      <c r="C61" s="6">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6">
+        <v>7</v>
+      </c>
+      <c r="E61" s="6">
+        <v>7</v>
+      </c>
+      <c r="F61" s="6">
+        <v>6</v>
+      </c>
+      <c r="G61" s="6">
+        <v>5</v>
+      </c>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="6">
+        <v>4</v>
+      </c>
+      <c r="C62" s="6">
+        <v>5</v>
+      </c>
+      <c r="D62" s="6">
+        <v>3</v>
+      </c>
+      <c r="E62" s="6">
+        <v>5</v>
+      </c>
+      <c r="F62" s="6">
+        <v>4</v>
+      </c>
+      <c r="G62" s="6">
+        <v>4</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="6">
+        <v>6</v>
+      </c>
+      <c r="C63" s="6">
+        <v>7</v>
+      </c>
+      <c r="D63" s="6">
+        <v>7</v>
+      </c>
+      <c r="E63" s="6">
+        <v>5</v>
+      </c>
+      <c r="F63" s="6">
+        <v>6</v>
+      </c>
+      <c r="G63" s="6">
+        <v>5</v>
+      </c>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="6">
+        <v>6</v>
+      </c>
+      <c r="C64" s="6">
+        <v>6</v>
+      </c>
+      <c r="D64" s="6">
+        <v>5</v>
+      </c>
+      <c r="E64" s="6">
+        <v>7</v>
+      </c>
+      <c r="F64" s="6">
+        <v>9</v>
+      </c>
+      <c r="G64" s="6">
+        <v>6</v>
+      </c>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="6">
+        <v>8</v>
+      </c>
+      <c r="C65" s="6">
+        <v>5</v>
+      </c>
+      <c r="D65" s="6">
+        <v>6</v>
+      </c>
+      <c r="E65" s="6">
+        <v>9</v>
+      </c>
+      <c r="F65" s="6">
+        <v>8</v>
+      </c>
+      <c r="G65" s="6">
+        <v>8</v>
+      </c>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="6">
+        <v>5</v>
+      </c>
+      <c r="C66" s="6">
+        <v>6</v>
+      </c>
+      <c r="D66" s="6">
+        <v>7</v>
+      </c>
+      <c r="E66" s="6">
+        <v>7</v>
+      </c>
+      <c r="F66" s="6">
+        <v>8</v>
+      </c>
+      <c r="G66" s="6">
+        <v>7</v>
+      </c>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="6">
+        <f>SUM(B49:B57)</f>
+        <v>53</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" ref="C67:G67" si="6">SUM(C49:C57)</f>
+        <v>55</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="E67" s="6">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="6">
+        <f>SUM(B58:B66)</f>
+        <v>53</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" ref="C68:G68" si="7">SUM(C58:C66)</f>
+        <v>53</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="F68" s="6">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="6">
+        <f>SUM(B49:B66)</f>
+        <v>106</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" ref="C69:G69" si="8">SUM(C49:C66)</f>
+        <v>108</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="E69" s="6">
+        <f t="shared" si="8"/>
+        <v>106</v>
+      </c>
+      <c r="F69" s="6">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="H69" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/my_code/data/scores/scores.xlsx
+++ b/my_code/data/scores/scores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABAA511-DF85-4872-A4A1-F069ED971A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC55AB4-7CF8-4692-927C-DA7E23E5504F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-90" windowWidth="18450" windowHeight="10980" tabRatio="799" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40817,7 +40817,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -40855,22 +40855,22 @@
         <v>15</v>
       </c>
       <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5">
         <v>25</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>27</v>
       </c>
-      <c r="D2" s="5">
-        <v>30</v>
-      </c>
       <c r="E2" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5"/>
     </row>
@@ -40879,22 +40879,22 @@
         <v>18</v>
       </c>
       <c r="B3" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6">
         <v>6</v>
       </c>
       <c r="E3" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -40903,10 +40903,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
@@ -40915,7 +40915,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G4" s="6">
         <v>6</v>
@@ -40927,22 +40927,22 @@
         <v>20</v>
       </c>
       <c r="B5" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -40957,16 +40957,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -40975,7 +40975,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
         <v>4</v>
@@ -40984,10 +40984,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="6">
         <v>4</v>
@@ -41002,19 +41002,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="6">
         <v>9</v>
       </c>
       <c r="G8" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -41023,22 +41023,22 @@
         <v>24</v>
       </c>
       <c r="B9" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -41047,22 +41047,22 @@
         <v>25</v>
       </c>
       <c r="B10" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -41071,16 +41071,16 @@
         <v>26</v>
       </c>
       <c r="B11" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="6">
         <v>5</v>
@@ -41095,10 +41095,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
@@ -41107,10 +41107,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -41119,22 +41119,22 @@
         <v>28</v>
       </c>
       <c r="B13" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="6">
         <v>6</v>
       </c>
       <c r="E13" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -41146,19 +41146,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" s="6">
         <v>5</v>
       </c>
       <c r="E14" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" s="6">
         <v>6</v>
       </c>
       <c r="G14" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -41170,19 +41170,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D15" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F15" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -41191,7 +41191,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="6">
         <v>6</v>
@@ -41200,10 +41200,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G16" s="6">
         <v>7</v>
@@ -41215,22 +41215,22 @@
         <v>32</v>
       </c>
       <c r="B17" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D17" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="6">
         <v>4</v>
       </c>
       <c r="F17" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -41239,22 +41239,22 @@
         <v>33</v>
       </c>
       <c r="B18" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="6">
         <v>6</v>
       </c>
       <c r="E18" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -41263,16 +41263,16 @@
         <v>34</v>
       </c>
       <c r="B19" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="6">
         <v>6</v>
       </c>
       <c r="D19" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="6">
         <v>7</v>
@@ -41287,22 +41287,22 @@
         <v>35</v>
       </c>
       <c r="B20" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="6">
         <v>5</v>
       </c>
       <c r="F20" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -41312,7 +41312,7 @@
       </c>
       <c r="B21" s="6">
         <f>SUM(B3:B11)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" ref="C21:G21" si="0">SUM(C3:C11)</f>
@@ -41324,15 +41324,15 @@
       </c>
       <c r="E21" s="6">
         <f>SUM(E3:E11)</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21" s="6">
         <f>SUM(F3:F11)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H21" s="6"/>
     </row>
@@ -41342,19 +41342,19 @@
       </c>
       <c r="B22" s="6">
         <f>SUM(B12:B20)</f>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C22" s="6">
         <f>SUM(C12:C20)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D22" s="6">
         <f>SUM(D12:D20)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" ref="E22:G22" si="1">SUM(E12:E20)</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="1"/>
@@ -41362,7 +41362,7 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -41372,27 +41372,27 @@
       </c>
       <c r="B23" s="6">
         <f>SUM(B3:B20)</f>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C23" s="6">
         <f t="shared" ref="C23" si="2">SUM(C3:C20)</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D23" s="6">
         <f>SUM(D3:D20)</f>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" s="6">
         <f>SUM(E3:E20)</f>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F23" s="6">
         <f>SUM(F3:F20)</f>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="6">
         <f>SUM(G3:G20)</f>
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H23" s="6"/>
     </row>

--- a/my_code/data/scores/scores.xlsx
+++ b/my_code/data/scores/scores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC55AB4-7CF8-4692-927C-DA7E23E5504F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9908180-2418-48A8-9C28-58A9B6EA9644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-90" windowWidth="18450" windowHeight="10980" tabRatio="799" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40817,7 +40817,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/my_code/data/scores/scores.xlsx
+++ b/my_code/data/scores/scores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9908180-2418-48A8-9C28-58A9B6EA9644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE6B80E-86C9-4075-9E68-47C775794453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-90" windowWidth="18450" windowHeight="10980" tabRatio="799" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40816,8 +40816,8 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -41411,22 +41411,22 @@
         <v>16</v>
       </c>
       <c r="B25" s="5">
+        <v>19</v>
+      </c>
+      <c r="C25" s="5">
+        <v>23</v>
+      </c>
+      <c r="D25" s="5">
         <v>24</v>
       </c>
-      <c r="C25" s="5">
-        <v>27</v>
-      </c>
-      <c r="D25" s="5">
-        <v>30</v>
-      </c>
       <c r="E25" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25" s="5">
+        <v>20</v>
+      </c>
+      <c r="G25" s="5">
         <v>26</v>
-      </c>
-      <c r="G25" s="5">
-        <v>23</v>
       </c>
       <c r="H25" s="5"/>
     </row>
@@ -41434,216 +41434,432 @@
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="B26" s="6">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6">
+        <v>6</v>
+      </c>
+      <c r="F26" s="6">
+        <v>6</v>
+      </c>
+      <c r="G26" s="6">
+        <v>6</v>
+      </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="6">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6">
+        <v>4</v>
+      </c>
+      <c r="F27" s="6">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4</v>
+      </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="B28" s="6">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5</v>
+      </c>
+      <c r="G28" s="6">
+        <v>4</v>
+      </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="B29" s="6">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6">
+        <v>6</v>
+      </c>
+      <c r="F29" s="6">
+        <v>7</v>
+      </c>
+      <c r="G29" s="6">
+        <v>8</v>
+      </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5</v>
+      </c>
+      <c r="F30" s="6">
+        <v>6</v>
+      </c>
+      <c r="G30" s="6">
+        <v>6</v>
+      </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="B31" s="6">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6">
+        <v>7</v>
+      </c>
+      <c r="F31" s="6">
+        <v>5</v>
+      </c>
+      <c r="G31" s="6">
+        <v>5</v>
+      </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="B32" s="6">
+        <v>5</v>
+      </c>
+      <c r="C32" s="6">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6">
+        <v>6</v>
+      </c>
+      <c r="G32" s="6">
+        <v>5</v>
+      </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="B33" s="6">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6">
+        <v>6</v>
+      </c>
+      <c r="E33" s="6">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6">
+        <v>10</v>
+      </c>
+      <c r="G33" s="6">
+        <v>7</v>
+      </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="B34" s="6">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6">
+        <v>4</v>
+      </c>
+      <c r="D34" s="6">
+        <v>6</v>
+      </c>
+      <c r="E34" s="6">
+        <v>5</v>
+      </c>
+      <c r="F34" s="6">
+        <v>5</v>
+      </c>
+      <c r="G34" s="6">
+        <v>4</v>
+      </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="B35" s="6">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6">
+        <v>6</v>
+      </c>
+      <c r="F35" s="6">
+        <v>5</v>
+      </c>
+      <c r="G35" s="6">
+        <v>7</v>
+      </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="B36" s="6">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6">
+        <v>7</v>
+      </c>
+      <c r="E36" s="6">
+        <v>6</v>
+      </c>
+      <c r="F36" s="6">
+        <v>5</v>
+      </c>
+      <c r="G36" s="6">
+        <v>6</v>
+      </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="B37" s="6">
+        <v>7</v>
+      </c>
+      <c r="C37" s="6">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6">
+        <v>5</v>
+      </c>
+      <c r="F37" s="6">
+        <v>7</v>
+      </c>
+      <c r="G37" s="6">
+        <v>7</v>
+      </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="B38" s="6">
+        <v>3</v>
+      </c>
+      <c r="C38" s="6">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6">
+        <v>4</v>
+      </c>
+      <c r="E38" s="6">
+        <v>5</v>
+      </c>
+      <c r="F38" s="6">
+        <v>6</v>
+      </c>
+      <c r="G38" s="6">
+        <v>7</v>
+      </c>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="B39" s="6">
+        <v>7</v>
+      </c>
+      <c r="C39" s="6">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6">
+        <v>6</v>
+      </c>
+      <c r="E39" s="6">
+        <v>6</v>
+      </c>
+      <c r="F39" s="6">
+        <v>7</v>
+      </c>
+      <c r="G39" s="6">
+        <v>7</v>
+      </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="B40" s="6">
+        <v>6</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6">
+        <v>5</v>
+      </c>
+      <c r="F40" s="6">
+        <v>9</v>
+      </c>
+      <c r="G40" s="6">
+        <v>9</v>
+      </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="B41" s="6">
+        <v>8</v>
+      </c>
+      <c r="C41" s="6">
+        <v>4</v>
+      </c>
+      <c r="D41" s="6">
+        <v>5</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3</v>
+      </c>
+      <c r="F41" s="6">
+        <v>4</v>
+      </c>
+      <c r="G41" s="6">
+        <v>4</v>
+      </c>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="B42" s="6">
+        <v>6</v>
+      </c>
+      <c r="C42" s="6">
+        <v>7</v>
+      </c>
+      <c r="D42" s="6">
+        <v>6</v>
+      </c>
+      <c r="E42" s="6">
+        <v>4</v>
+      </c>
+      <c r="F42" s="6">
+        <v>4</v>
+      </c>
+      <c r="G42" s="6">
+        <v>8</v>
+      </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="B43" s="6">
+        <v>9</v>
+      </c>
+      <c r="C43" s="6">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6">
+        <v>9</v>
+      </c>
+      <c r="E43" s="6">
+        <v>7</v>
+      </c>
+      <c r="F43" s="6">
+        <v>4</v>
+      </c>
+      <c r="G43" s="6">
+        <v>7</v>
+      </c>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.75">
@@ -41652,27 +41868,27 @@
       </c>
       <c r="B44" s="6">
         <f t="shared" ref="B44:G44" si="3">SUM(B26:B34)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C44" s="6">
         <f>SUM(C26:C34)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H44" s="6"/>
     </row>
@@ -41682,27 +41898,27 @@
       </c>
       <c r="B45" s="6">
         <f t="shared" ref="B45:G45" si="4">SUM(B35:B43)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C45" s="6">
         <f>SUM(C35:C43)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E45" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H45" s="6"/>
     </row>
@@ -41712,27 +41928,27 @@
       </c>
       <c r="B46" s="6">
         <f>SUM(B44:B45)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C46" s="6">
         <f t="shared" ref="C46:G46" si="5">SUM(C44:C45)</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="H46" s="6"/>
     </row>

--- a/my_code/data/scores/scores.xlsx
+++ b/my_code/data/scores/scores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE6B80E-86C9-4075-9E68-47C775794453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A53A33-1C16-4C3E-B558-5CD8FEB89F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-90" windowWidth="18450" windowHeight="10980" tabRatio="799" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40816,8 +40816,8 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -41967,13 +41967,13 @@
         <v>17</v>
       </c>
       <c r="B48" s="5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C48" s="5">
+        <v>24</v>
+      </c>
+      <c r="D48" s="5">
         <v>26</v>
-      </c>
-      <c r="D48" s="5">
-        <v>29</v>
       </c>
       <c r="E48" s="5">
         <v>18</v>
@@ -41982,7 +41982,7 @@
         <v>24</v>
       </c>
       <c r="G48" s="5">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H48" s="5"/>
     </row>
@@ -41990,216 +41990,432 @@
       <c r="A49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="B49" s="6">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6">
+        <v>7</v>
+      </c>
+      <c r="D49" s="6">
+        <v>5</v>
+      </c>
+      <c r="E49" s="6">
+        <v>5</v>
+      </c>
+      <c r="F49" s="6">
+        <v>6</v>
+      </c>
+      <c r="G49" s="6">
+        <v>5</v>
+      </c>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A50" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="B50" s="6">
+        <v>4</v>
+      </c>
+      <c r="C50" s="6">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6">
+        <v>5</v>
+      </c>
+      <c r="E50" s="6">
+        <v>5</v>
+      </c>
+      <c r="F50" s="6">
+        <v>6</v>
+      </c>
+      <c r="G50" s="6">
+        <v>8</v>
+      </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="B51" s="6">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6">
+        <v>7</v>
+      </c>
+      <c r="E51" s="6">
+        <v>3</v>
+      </c>
+      <c r="F51" s="6">
+        <v>8</v>
+      </c>
+      <c r="G51" s="6">
+        <v>4</v>
+      </c>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="B52" s="6">
+        <v>7</v>
+      </c>
+      <c r="C52" s="6">
+        <v>7</v>
+      </c>
+      <c r="D52" s="6">
+        <v>8</v>
+      </c>
+      <c r="E52" s="6">
+        <v>5</v>
+      </c>
+      <c r="F52" s="6">
+        <v>8</v>
+      </c>
+      <c r="G52" s="6">
+        <v>5</v>
+      </c>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="B53" s="6">
+        <v>7</v>
+      </c>
+      <c r="C53" s="6">
+        <v>8</v>
+      </c>
+      <c r="D53" s="6">
+        <v>8</v>
+      </c>
+      <c r="E53" s="6">
+        <v>6</v>
+      </c>
+      <c r="F53" s="6">
+        <v>10</v>
+      </c>
+      <c r="G53" s="6">
+        <v>7</v>
+      </c>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="B54" s="6">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6">
+        <v>7</v>
+      </c>
+      <c r="D54" s="6">
+        <v>5</v>
+      </c>
+      <c r="E54" s="6">
+        <v>6</v>
+      </c>
+      <c r="F54" s="6">
+        <v>7</v>
+      </c>
+      <c r="G54" s="6">
+        <v>8</v>
+      </c>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="B55" s="6">
+        <v>3</v>
+      </c>
+      <c r="C55" s="6">
+        <v>4</v>
+      </c>
+      <c r="D55" s="6">
+        <v>3</v>
+      </c>
+      <c r="E55" s="6">
+        <v>3</v>
+      </c>
+      <c r="F55" s="6">
+        <v>5</v>
+      </c>
+      <c r="G55" s="6">
+        <v>8</v>
+      </c>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A56" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="B56" s="6">
+        <v>7</v>
+      </c>
+      <c r="C56" s="6">
+        <v>5</v>
+      </c>
+      <c r="D56" s="6">
+        <v>6</v>
+      </c>
+      <c r="E56" s="6">
+        <v>5</v>
+      </c>
+      <c r="F56" s="6">
+        <v>6</v>
+      </c>
+      <c r="G56" s="6">
+        <v>8</v>
+      </c>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="B57" s="6">
+        <v>6</v>
+      </c>
+      <c r="C57" s="6">
+        <v>9</v>
+      </c>
+      <c r="D57" s="6">
+        <v>8</v>
+      </c>
+      <c r="E57" s="6">
+        <v>4</v>
+      </c>
+      <c r="F57" s="6">
+        <v>7</v>
+      </c>
+      <c r="G57" s="6">
+        <v>6</v>
+      </c>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A58" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="B58" s="6">
+        <v>4</v>
+      </c>
+      <c r="C58" s="6">
+        <v>8</v>
+      </c>
+      <c r="D58" s="6">
+        <v>6</v>
+      </c>
+      <c r="E58" s="6">
+        <v>4</v>
+      </c>
+      <c r="F58" s="6">
+        <v>4</v>
+      </c>
+      <c r="G58" s="6">
+        <v>8</v>
+      </c>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="B59" s="6">
+        <v>6</v>
+      </c>
+      <c r="C59" s="6">
+        <v>10</v>
+      </c>
+      <c r="D59" s="6">
+        <v>6</v>
+      </c>
+      <c r="E59" s="6">
+        <v>5</v>
+      </c>
+      <c r="F59" s="6">
+        <v>6</v>
+      </c>
+      <c r="G59" s="6">
+        <v>10</v>
+      </c>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A60" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="B60" s="6">
+        <v>3</v>
+      </c>
+      <c r="C60" s="6">
+        <v>4</v>
+      </c>
+      <c r="D60" s="6">
+        <v>4</v>
+      </c>
+      <c r="E60" s="6">
+        <v>4</v>
+      </c>
+      <c r="F60" s="6">
+        <v>4</v>
+      </c>
+      <c r="G60" s="6">
+        <v>5</v>
+      </c>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A61" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="B61" s="6">
+        <v>10</v>
+      </c>
+      <c r="C61" s="6">
+        <v>6</v>
+      </c>
+      <c r="D61" s="6">
+        <v>5</v>
+      </c>
+      <c r="E61" s="6">
+        <v>6</v>
+      </c>
+      <c r="F61" s="6">
+        <v>6</v>
+      </c>
+      <c r="G61" s="6">
+        <v>7</v>
+      </c>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="B62" s="6">
+        <v>7</v>
+      </c>
+      <c r="C62" s="6">
+        <v>7</v>
+      </c>
+      <c r="D62" s="6">
+        <v>6</v>
+      </c>
+      <c r="E62" s="6">
+        <v>8</v>
+      </c>
+      <c r="F62" s="6">
+        <v>6</v>
+      </c>
+      <c r="G62" s="6">
+        <v>6</v>
+      </c>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A63" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="B63" s="6">
+        <v>10</v>
+      </c>
+      <c r="C63" s="6">
+        <v>8</v>
+      </c>
+      <c r="D63" s="6">
+        <v>6</v>
+      </c>
+      <c r="E63" s="6">
+        <v>7</v>
+      </c>
+      <c r="F63" s="6">
+        <v>8</v>
+      </c>
+      <c r="G63" s="6">
+        <v>10</v>
+      </c>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A64" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="B64" s="6">
+        <v>4</v>
+      </c>
+      <c r="C64" s="6">
+        <v>5</v>
+      </c>
+      <c r="D64" s="6">
+        <v>8</v>
+      </c>
+      <c r="E64" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" s="6">
+        <v>6</v>
+      </c>
+      <c r="G64" s="6">
+        <v>4</v>
+      </c>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A65" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="B65" s="6">
+        <v>7</v>
+      </c>
+      <c r="C65" s="6">
+        <v>6</v>
+      </c>
+      <c r="D65" s="6">
+        <v>9</v>
+      </c>
+      <c r="E65" s="6">
+        <v>6</v>
+      </c>
+      <c r="F65" s="6">
+        <v>7</v>
+      </c>
+      <c r="G65" s="6">
+        <v>7</v>
+      </c>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A66" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="B66" s="6">
+        <v>9</v>
+      </c>
+      <c r="C66" s="6">
+        <v>7</v>
+      </c>
+      <c r="D66" s="6">
+        <v>9</v>
+      </c>
+      <c r="E66" s="6">
+        <v>9</v>
+      </c>
+      <c r="F66" s="6">
+        <v>8</v>
+      </c>
+      <c r="G66" s="6">
+        <v>8</v>
+      </c>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.75">
@@ -42208,27 +42424,27 @@
       </c>
       <c r="B67" s="6">
         <f>SUM(B49:B57)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C67" s="6">
         <f t="shared" ref="C67:G67" si="6">SUM(C49:C57)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E67" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F67" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="H67" s="6"/>
     </row>
@@ -42238,27 +42454,27 @@
       </c>
       <c r="B68" s="6">
         <f>SUM(B58:B66)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C68" s="6">
         <f t="shared" ref="C68:G68" si="7">SUM(C58:C66)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E68" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F68" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H68" s="6"/>
     </row>
@@ -42268,27 +42484,27 @@
       </c>
       <c r="B69" s="6">
         <f>SUM(B49:B66)</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C69" s="6">
         <f t="shared" ref="C69:G69" si="8">SUM(C49:C66)</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E69" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F69" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="H69" s="6"/>
     </row>

--- a/my_code/data/scores/scores.xlsx
+++ b/my_code/data/scores/scores.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A53A33-1C16-4C3E-B558-5CD8FEB89F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CD1FF7-4792-4919-9170-C9B0BE748517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-90" windowWidth="18450" windowHeight="10980" tabRatio="799" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="955" yWindow="-90" windowWidth="18335" windowHeight="10980" tabRatio="799" firstSheet="16" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tour05" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="tour29" sheetId="29" r:id="rId24"/>
     <sheet name="tour30" sheetId="30" r:id="rId25"/>
     <sheet name="tour31" sheetId="31" r:id="rId26"/>
+    <sheet name="tour32" sheetId="32" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="76">
   <si>
     <t>Lundström</t>
   </si>
@@ -344,25 +345,25 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,9 +383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -422,9 +423,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,26 +458,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,26 +493,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17313,7 +17280,7 @@
       <c r="G3" s="6">
         <v>7</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>6</v>
       </c>
       <c r="I3" s="6"/>
@@ -17345,7 +17312,7 @@
       <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>5</v>
       </c>
       <c r="I4" s="6"/>
@@ -17377,7 +17344,7 @@
       <c r="G5" s="6">
         <v>6</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>7</v>
       </c>
       <c r="I5" s="6"/>
@@ -17409,7 +17376,7 @@
       <c r="G6" s="6">
         <v>8</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>7</v>
       </c>
       <c r="I6" s="6"/>
@@ -17441,7 +17408,7 @@
       <c r="G7" s="6">
         <v>4</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>5</v>
       </c>
       <c r="I7" s="6"/>
@@ -17473,7 +17440,7 @@
       <c r="G8" s="6">
         <v>5</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>9</v>
       </c>
       <c r="I8" s="6"/>
@@ -17505,7 +17472,7 @@
       <c r="G9" s="6">
         <v>5</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>8</v>
       </c>
       <c r="I9" s="6"/>
@@ -17537,7 +17504,7 @@
       <c r="G10" s="6">
         <v>6</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>5</v>
       </c>
       <c r="I10" s="6"/>
@@ -17569,7 +17536,7 @@
       <c r="G11" s="6">
         <v>7</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>8</v>
       </c>
       <c r="I11" s="6"/>
@@ -17601,7 +17568,7 @@
       <c r="G12" s="6">
         <v>6</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>5</v>
       </c>
       <c r="I12" s="6"/>
@@ -17633,7 +17600,7 @@
       <c r="G13" s="6">
         <v>7</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>6</v>
       </c>
       <c r="I13" s="6"/>
@@ -17665,7 +17632,7 @@
       <c r="G14" s="6">
         <v>6</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>4</v>
       </c>
       <c r="I14" s="6"/>
@@ -17697,7 +17664,7 @@
       <c r="G15" s="6">
         <v>3</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>4</v>
       </c>
       <c r="I15" s="6"/>
@@ -17729,7 +17696,7 @@
       <c r="G16" s="6">
         <v>9</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>7</v>
       </c>
       <c r="I16" s="6"/>
@@ -17761,7 +17728,7 @@
       <c r="G17" s="6">
         <v>4</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>7</v>
       </c>
       <c r="I17" s="6"/>
@@ -17793,7 +17760,7 @@
       <c r="G18" s="6">
         <v>5</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>5</v>
       </c>
       <c r="I18" s="6"/>
@@ -17825,7 +17792,7 @@
       <c r="G19" s="6">
         <v>6</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>5</v>
       </c>
       <c r="I19" s="6"/>
@@ -17857,7 +17824,7 @@
       <c r="G20" s="6">
         <v>9</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>7</v>
       </c>
       <c r="I20" s="6"/>
@@ -17895,7 +17862,7 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -17934,7 +17901,7 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -17973,7 +17940,7 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
@@ -17992,7 +17959,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -19569,7 +19536,7 @@
       <c r="G3" s="6">
         <v>5</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>9</v>
       </c>
       <c r="I3" s="6"/>
@@ -19601,7 +19568,7 @@
       <c r="G4" s="6">
         <v>7</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>5</v>
       </c>
       <c r="I4" s="6"/>
@@ -19633,7 +19600,7 @@
       <c r="G5" s="6">
         <v>5</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>5</v>
       </c>
       <c r="I5" s="6"/>
@@ -19665,7 +19632,7 @@
       <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>8</v>
       </c>
       <c r="I6" s="6"/>
@@ -19697,7 +19664,7 @@
       <c r="G7" s="6">
         <v>5</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>4</v>
       </c>
       <c r="I7" s="6"/>
@@ -19729,7 +19696,7 @@
       <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>6</v>
       </c>
       <c r="I8" s="6"/>
@@ -19761,7 +19728,7 @@
       <c r="G9" s="6">
         <v>7</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>5</v>
       </c>
       <c r="I9" s="6"/>
@@ -19793,7 +19760,7 @@
       <c r="G10" s="6">
         <v>3</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>6</v>
       </c>
       <c r="I10" s="6"/>
@@ -19825,7 +19792,7 @@
       <c r="G11" s="6">
         <v>5</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>5</v>
       </c>
       <c r="I11" s="6"/>
@@ -19857,7 +19824,7 @@
       <c r="G12" s="6">
         <v>8</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>6</v>
       </c>
       <c r="I12" s="6"/>
@@ -19889,7 +19856,7 @@
       <c r="G13" s="6">
         <v>5</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>3</v>
       </c>
       <c r="I13" s="6"/>
@@ -19921,7 +19888,7 @@
       <c r="G14" s="6">
         <v>5</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>7</v>
       </c>
       <c r="I14" s="6"/>
@@ -19953,7 +19920,7 @@
       <c r="G15" s="6">
         <v>5</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>4</v>
       </c>
       <c r="I15" s="6"/>
@@ -19985,7 +19952,7 @@
       <c r="G16" s="6">
         <v>6</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>7</v>
       </c>
       <c r="I16" s="6"/>
@@ -20017,7 +19984,7 @@
       <c r="G17" s="6">
         <v>7</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>7</v>
       </c>
       <c r="I17" s="6"/>
@@ -20049,7 +20016,7 @@
       <c r="G18" s="6">
         <v>7</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>5</v>
       </c>
       <c r="I18" s="6"/>
@@ -20081,7 +20048,7 @@
       <c r="G19" s="6">
         <v>6</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>6</v>
       </c>
       <c r="I19" s="6"/>
@@ -20113,7 +20080,7 @@
       <c r="G20" s="6">
         <v>5</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>7</v>
       </c>
       <c r="I20" s="6"/>
@@ -20151,7 +20118,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -20190,7 +20157,7 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
@@ -20229,7 +20196,7 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
@@ -20248,7 +20215,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -21830,10 +21797,10 @@
       <c r="G3" s="6">
         <v>6</v>
       </c>
-      <c r="H3" s="7">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="H3" s="6">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6">
         <v>7</v>
       </c>
       <c r="J3" s="6"/>
@@ -21864,10 +21831,10 @@
       <c r="G4" s="6">
         <v>6</v>
       </c>
-      <c r="H4" s="7">
-        <v>7</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="H4" s="6">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6">
         <v>6</v>
       </c>
       <c r="J4" s="6"/>
@@ -21898,10 +21865,10 @@
       <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="H5" s="6">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6">
         <v>3</v>
       </c>
       <c r="J5" s="6"/>
@@ -21932,10 +21899,10 @@
       <c r="G6" s="6">
         <v>6</v>
       </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="H6" s="6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6">
         <v>5</v>
       </c>
       <c r="J6" s="6"/>
@@ -21966,10 +21933,10 @@
       <c r="G7" s="6">
         <v>7</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>10</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>7</v>
       </c>
       <c r="J7" s="6"/>
@@ -22000,10 +21967,10 @@
       <c r="G8" s="6">
         <v>3</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="6">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6">
         <v>3</v>
       </c>
       <c r="J8" s="6"/>
@@ -22034,10 +22001,10 @@
       <c r="G9" s="6">
         <v>7</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>9</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>8</v>
       </c>
       <c r="J9" s="6"/>
@@ -22068,10 +22035,10 @@
       <c r="G10" s="6">
         <v>7</v>
       </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="H10" s="6">
+        <v>8</v>
+      </c>
+      <c r="I10" s="6">
         <v>8</v>
       </c>
       <c r="J10" s="6"/>
@@ -22102,10 +22069,10 @@
       <c r="G11" s="6">
         <v>5</v>
       </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="H11" s="6">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6">
         <v>5</v>
       </c>
       <c r="J11" s="6"/>
@@ -22136,10 +22103,10 @@
       <c r="G12" s="6">
         <v>3</v>
       </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="H12" s="6">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6">
         <v>5</v>
       </c>
       <c r="J12" s="6"/>
@@ -22170,10 +22137,10 @@
       <c r="G13" s="6">
         <v>5</v>
       </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="H13" s="6">
+        <v>5</v>
+      </c>
+      <c r="I13" s="6">
         <v>5</v>
       </c>
       <c r="J13" s="6"/>
@@ -22204,10 +22171,10 @@
       <c r="G14" s="6">
         <v>4</v>
       </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="H14" s="6">
+        <v>7</v>
+      </c>
+      <c r="I14" s="6">
         <v>5</v>
       </c>
       <c r="J14" s="6"/>
@@ -22238,10 +22205,10 @@
       <c r="G15" s="6">
         <v>5</v>
       </c>
-      <c r="H15" s="7">
-        <v>5</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="H15" s="6">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6">
         <v>6</v>
       </c>
       <c r="J15" s="6"/>
@@ -22272,10 +22239,10 @@
       <c r="G16" s="6">
         <v>9</v>
       </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="H16" s="6">
+        <v>8</v>
+      </c>
+      <c r="I16" s="6">
         <v>6</v>
       </c>
       <c r="J16" s="6"/>
@@ -22306,10 +22273,10 @@
       <c r="G17" s="6">
         <v>5</v>
       </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6">
         <v>4</v>
       </c>
       <c r="J17" s="6"/>
@@ -22340,10 +22307,10 @@
       <c r="G18" s="6">
         <v>7</v>
       </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="H18" s="6">
+        <v>7</v>
+      </c>
+      <c r="I18" s="6">
         <v>9</v>
       </c>
       <c r="J18" s="6"/>
@@ -22374,10 +22341,10 @@
       <c r="G19" s="6">
         <v>7</v>
       </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="H19" s="6">
+        <v>6</v>
+      </c>
+      <c r="I19" s="6">
         <v>6</v>
       </c>
       <c r="J19" s="6"/>
@@ -22408,10 +22375,10 @@
       <c r="G20" s="6">
         <v>4</v>
       </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="H20" s="6">
+        <v>4</v>
+      </c>
+      <c r="I20" s="6">
         <v>5</v>
       </c>
       <c r="J20" s="6"/>
@@ -22448,11 +22415,11 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -22490,11 +22457,11 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
@@ -22532,11 +22499,11 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
@@ -22554,8 +22521,8 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -22621,7 +22588,7 @@
       <c r="H26" s="6">
         <v>8</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>6</v>
       </c>
       <c r="J26" s="6"/>
@@ -22655,7 +22622,7 @@
       <c r="H27" s="6">
         <v>6</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>6</v>
       </c>
       <c r="J27" s="6"/>
@@ -22689,7 +22656,7 @@
       <c r="H28" s="6">
         <v>5</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>4</v>
       </c>
       <c r="J28" s="6"/>
@@ -22723,7 +22690,7 @@
       <c r="H29" s="6">
         <v>6</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>9</v>
       </c>
       <c r="J29" s="6"/>
@@ -22757,7 +22724,7 @@
       <c r="H30" s="6">
         <v>7</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>6</v>
       </c>
       <c r="J30" s="6"/>
@@ -22791,7 +22758,7 @@
       <c r="H31" s="6">
         <v>3</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>3</v>
       </c>
       <c r="J31" s="6"/>
@@ -22825,7 +22792,7 @@
       <c r="H32" s="6">
         <v>8</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>7</v>
       </c>
       <c r="J32" s="6"/>
@@ -22859,7 +22826,7 @@
       <c r="H33" s="6">
         <v>10</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>7</v>
       </c>
       <c r="J33" s="6"/>
@@ -22893,7 +22860,7 @@
       <c r="H34" s="6">
         <v>4</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>5</v>
       </c>
       <c r="J34" s="6"/>
@@ -22927,7 +22894,7 @@
       <c r="H35" s="6">
         <v>5</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>4</v>
       </c>
       <c r="J35" s="6"/>
@@ -22961,7 +22928,7 @@
       <c r="H36" s="6">
         <v>6</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>5</v>
       </c>
       <c r="J36" s="6"/>
@@ -22995,7 +22962,7 @@
       <c r="H37" s="6">
         <v>5</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>5</v>
       </c>
       <c r="J37" s="6"/>
@@ -23029,7 +22996,7 @@
       <c r="H38" s="6">
         <v>5</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>7</v>
       </c>
       <c r="J38" s="6"/>
@@ -23063,7 +23030,7 @@
       <c r="H39" s="6">
         <v>7</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>10</v>
       </c>
       <c r="J39" s="6"/>
@@ -23097,7 +23064,7 @@
       <c r="H40" s="6">
         <v>6</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>4</v>
       </c>
       <c r="J40" s="6"/>
@@ -23131,7 +23098,7 @@
       <c r="H41" s="6">
         <v>8</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>6</v>
       </c>
       <c r="J41" s="6"/>
@@ -23165,7 +23132,7 @@
       <c r="H42" s="6">
         <v>5</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>9</v>
       </c>
       <c r="J42" s="6"/>
@@ -23199,7 +23166,7 @@
       <c r="H43" s="6">
         <v>4</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>5</v>
       </c>
       <c r="J43" s="6"/>
@@ -23240,7 +23207,7 @@
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
@@ -23282,7 +23249,7 @@
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
@@ -23324,7 +23291,7 @@
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
@@ -23409,7 +23376,7 @@
       <c r="H49" s="6">
         <v>9</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="6">
         <v>7</v>
       </c>
       <c r="J49" s="6"/>
@@ -23443,7 +23410,7 @@
       <c r="H50" s="6">
         <v>4</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>4</v>
       </c>
       <c r="J50" s="6"/>
@@ -23477,7 +23444,7 @@
       <c r="H51" s="6">
         <v>5</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <v>5</v>
       </c>
       <c r="J51" s="6"/>
@@ -23511,7 +23478,7 @@
       <c r="H52" s="6">
         <v>4</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <v>5</v>
       </c>
       <c r="J52" s="6"/>
@@ -23545,7 +23512,7 @@
       <c r="H53" s="6">
         <v>7</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="6">
         <v>8</v>
       </c>
       <c r="J53" s="6"/>
@@ -23579,7 +23546,7 @@
       <c r="H54" s="6">
         <v>10</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="6">
         <v>6</v>
       </c>
       <c r="J54" s="6"/>
@@ -23613,7 +23580,7 @@
       <c r="H55" s="6">
         <v>3</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="6">
         <v>3</v>
       </c>
       <c r="J55" s="6"/>
@@ -23647,7 +23614,7 @@
       <c r="H56" s="6">
         <v>6</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <v>6</v>
       </c>
       <c r="J56" s="6"/>
@@ -23681,7 +23648,7 @@
       <c r="H57" s="6">
         <v>5</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="6">
         <v>10</v>
       </c>
       <c r="J57" s="6"/>
@@ -23715,7 +23682,7 @@
       <c r="H58" s="6">
         <v>7</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="6">
         <v>6</v>
       </c>
       <c r="J58" s="6"/>
@@ -23749,7 +23716,7 @@
       <c r="H59" s="6">
         <v>3</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="6">
         <v>5</v>
       </c>
       <c r="J59" s="6"/>
@@ -23783,7 +23750,7 @@
       <c r="H60" s="6">
         <v>7</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="6">
         <v>6</v>
       </c>
       <c r="J60" s="6"/>
@@ -23817,7 +23784,7 @@
       <c r="H61" s="6">
         <v>5</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="6">
         <v>6</v>
       </c>
       <c r="J61" s="6"/>
@@ -23851,7 +23818,7 @@
       <c r="H62" s="6">
         <v>5</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="6">
         <v>6</v>
       </c>
       <c r="J62" s="6"/>
@@ -23885,7 +23852,7 @@
       <c r="H63" s="6">
         <v>9</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="6">
         <v>6</v>
       </c>
       <c r="J63" s="6"/>
@@ -23919,7 +23886,7 @@
       <c r="H64" s="6">
         <v>8</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="6">
         <v>6</v>
       </c>
       <c r="J64" s="6"/>
@@ -23953,7 +23920,7 @@
       <c r="H65" s="6">
         <v>6</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="6">
         <v>7</v>
       </c>
       <c r="J65" s="6"/>
@@ -23987,7 +23954,7 @@
       <c r="H66" s="6">
         <v>10</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="6">
         <v>7</v>
       </c>
       <c r="J66" s="6"/>
@@ -24028,7 +23995,7 @@
         <f>SUM(H49:H66)</f>
         <v>113</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="6">
         <f>SUM(I49:I57)</f>
         <v>54</v>
       </c>
@@ -24070,7 +24037,7 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="6">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
@@ -24112,7 +24079,7 @@
         <f t="shared" si="7"/>
         <v>113</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="6">
         <f t="shared" si="7"/>
         <v>109</v>
       </c>
@@ -40815,8 +40782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250022E4-5947-429D-879F-364815597187}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
@@ -42505,6 +42472,1709 @@
       <c r="G69" s="6">
         <f t="shared" si="8"/>
         <v>124</v>
+      </c>
+      <c r="H69" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B2282B-0EBA-4B1F-9492-E6187ADE2ACB}">
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="11.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5">
+        <v>31</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>7</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>6</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6">
+        <v>6</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6">
+        <v>8</v>
+      </c>
+      <c r="G17" s="6">
+        <v>9</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6">
+        <v>6</v>
+      </c>
+      <c r="G18" s="6">
+        <v>6</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>6</v>
+      </c>
+      <c r="G20" s="6">
+        <v>6</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6">
+        <f>SUM(B3:B11)</f>
+        <v>49</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21" si="0">SUM(C3:C11)</f>
+        <v>42</v>
+      </c>
+      <c r="D21" s="6">
+        <f>SUM(D3:D11)</f>
+        <v>47</v>
+      </c>
+      <c r="E21" s="6">
+        <f>SUM(E3:E11)</f>
+        <v>42</v>
+      </c>
+      <c r="F21" s="6">
+        <f>SUM(F3:F16)</f>
+        <v>88</v>
+      </c>
+      <c r="G21" s="6">
+        <f>SUM(G3:G20)</f>
+        <v>116</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6">
+        <f>SUM(B12:B20)</f>
+        <v>50</v>
+      </c>
+      <c r="C22" s="6">
+        <f>SUM(C12:C20)</f>
+        <v>59</v>
+      </c>
+      <c r="D22" s="6">
+        <f>SUM(D12:D20)</f>
+        <v>49</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" ref="E22:G22" si="1">SUM(E12:E20)</f>
+        <v>48</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6">
+        <f>SUM(B3:B20)</f>
+        <v>99</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" ref="C23" si="2">SUM(C3:C20)</f>
+        <v>101</v>
+      </c>
+      <c r="D23" s="6">
+        <f>SUM(D3:D20)</f>
+        <v>96</v>
+      </c>
+      <c r="E23" s="6">
+        <f>SUM(E3:E20)</f>
+        <v>90</v>
+      </c>
+      <c r="F23" s="6">
+        <f>SUM(F3:F20)</f>
+        <v>114</v>
+      </c>
+      <c r="G23" s="6">
+        <f>SUM(G3:G20)</f>
+        <v>116</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5">
+        <v>28</v>
+      </c>
+      <c r="D25" s="5">
+        <v>26</v>
+      </c>
+      <c r="E25" s="5">
+        <v>21</v>
+      </c>
+      <c r="F25" s="5">
+        <v>25</v>
+      </c>
+      <c r="G25" s="5">
+        <v>31</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="6">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6">
+        <v>7</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6">
+        <v>7</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="6">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6">
+        <v>6</v>
+      </c>
+      <c r="F27" s="6">
+        <v>9</v>
+      </c>
+      <c r="G27" s="6">
+        <v>7</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6">
+        <v>3</v>
+      </c>
+      <c r="F28" s="6">
+        <v>4</v>
+      </c>
+      <c r="G28" s="6">
+        <v>4</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="6">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6">
+        <v>6</v>
+      </c>
+      <c r="E29" s="6">
+        <v>6</v>
+      </c>
+      <c r="F29" s="6">
+        <v>8</v>
+      </c>
+      <c r="G29" s="6">
+        <v>8</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4</v>
+      </c>
+      <c r="F30" s="6">
+        <v>4</v>
+      </c>
+      <c r="G30" s="6">
+        <v>6</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="6">
+        <v>7</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6">
+        <v>4</v>
+      </c>
+      <c r="F31" s="6">
+        <v>8</v>
+      </c>
+      <c r="G31" s="6">
+        <v>9</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="6">
+        <v>7</v>
+      </c>
+      <c r="C32" s="6">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>6</v>
+      </c>
+      <c r="E32" s="6">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6">
+        <v>8</v>
+      </c>
+      <c r="G32" s="6">
+        <v>6</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="6">
+        <v>5</v>
+      </c>
+      <c r="C33" s="6">
+        <v>5</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4</v>
+      </c>
+      <c r="E33" s="6">
+        <v>4</v>
+      </c>
+      <c r="F33" s="6">
+        <v>6</v>
+      </c>
+      <c r="G33" s="6">
+        <v>5</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="6">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6">
+        <v>6</v>
+      </c>
+      <c r="E34" s="6">
+        <v>6</v>
+      </c>
+      <c r="F34" s="6">
+        <v>7</v>
+      </c>
+      <c r="G34" s="6">
+        <v>6</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="6">
+        <v>10</v>
+      </c>
+      <c r="C35" s="6">
+        <v>10</v>
+      </c>
+      <c r="D35" s="6">
+        <v>6</v>
+      </c>
+      <c r="E35" s="6">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6">
+        <v>8</v>
+      </c>
+      <c r="G35" s="6">
+        <v>7</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="6">
+        <v>3</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6">
+        <v>4</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4</v>
+      </c>
+      <c r="F36" s="6">
+        <v>5</v>
+      </c>
+      <c r="G36" s="6">
+        <v>4</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="6">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6">
+        <v>9</v>
+      </c>
+      <c r="D37" s="6">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6">
+        <v>6</v>
+      </c>
+      <c r="F37" s="6">
+        <v>6</v>
+      </c>
+      <c r="G37" s="6">
+        <v>6</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6">
+        <v>6</v>
+      </c>
+      <c r="D38" s="6">
+        <v>4</v>
+      </c>
+      <c r="E38" s="6">
+        <v>4</v>
+      </c>
+      <c r="F38" s="6">
+        <v>5</v>
+      </c>
+      <c r="G38" s="6">
+        <v>5</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="6">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6">
+        <v>6</v>
+      </c>
+      <c r="D39" s="6">
+        <v>6</v>
+      </c>
+      <c r="E39" s="6">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6">
+        <v>6</v>
+      </c>
+      <c r="G39" s="6">
+        <v>6</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="6">
+        <v>5</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6">
+        <v>6</v>
+      </c>
+      <c r="F40" s="6">
+        <v>9</v>
+      </c>
+      <c r="G40" s="6">
+        <v>9</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="6">
+        <v>4</v>
+      </c>
+      <c r="C41" s="6">
+        <v>4</v>
+      </c>
+      <c r="D41" s="6">
+        <v>5</v>
+      </c>
+      <c r="E41" s="6">
+        <v>4</v>
+      </c>
+      <c r="F41" s="6">
+        <v>6</v>
+      </c>
+      <c r="G41" s="6">
+        <v>7</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="6">
+        <v>8</v>
+      </c>
+      <c r="C42" s="6">
+        <v>8</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5</v>
+      </c>
+      <c r="E42" s="6">
+        <v>5</v>
+      </c>
+      <c r="F42" s="6">
+        <v>5</v>
+      </c>
+      <c r="G42" s="6">
+        <v>6</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="6">
+        <v>6</v>
+      </c>
+      <c r="C43" s="6">
+        <v>7</v>
+      </c>
+      <c r="D43" s="6">
+        <v>6</v>
+      </c>
+      <c r="E43" s="6">
+        <v>5</v>
+      </c>
+      <c r="F43" s="6">
+        <v>9</v>
+      </c>
+      <c r="G43" s="6">
+        <v>8</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="6">
+        <f>SUM(B26:B34)</f>
+        <v>50</v>
+      </c>
+      <c r="C44" s="6">
+        <f>SUM(C26:C34)</f>
+        <v>45</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" ref="D44:G44" si="3">SUM(D26:D34)</f>
+        <v>47</v>
+      </c>
+      <c r="E44" s="6">
+        <f>SUM(E26:E34)</f>
+        <v>48</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="G44" s="6">
+        <f>SUM(G26:G34)</f>
+        <v>58</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="6">
+        <f>SUM(B35:B43)</f>
+        <v>53</v>
+      </c>
+      <c r="C45" s="6">
+        <f>SUM(C35:C43)</f>
+        <v>59</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" ref="D45:G45" si="4">SUM(D35:D43)</f>
+        <v>51</v>
+      </c>
+      <c r="E45" s="6">
+        <f>SUM(E35:E43)</f>
+        <v>48</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="G45" s="6">
+        <f>SUM(G35:G43)</f>
+        <v>58</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="6">
+        <f>SUM(B44:B45)</f>
+        <v>103</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" ref="C46:G46" si="5">SUM(C44:C45)</f>
+        <v>104</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="5">
+        <v>26</v>
+      </c>
+      <c r="C48" s="5">
+        <v>29</v>
+      </c>
+      <c r="D48" s="5">
+        <v>26</v>
+      </c>
+      <c r="E48" s="5">
+        <v>22</v>
+      </c>
+      <c r="F48" s="5">
+        <v>26</v>
+      </c>
+      <c r="G48" s="5">
+        <v>32</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="6">
+        <v>7</v>
+      </c>
+      <c r="C49" s="6">
+        <v>6</v>
+      </c>
+      <c r="D49" s="6">
+        <v>7</v>
+      </c>
+      <c r="E49" s="6">
+        <v>5</v>
+      </c>
+      <c r="F49" s="6">
+        <v>7</v>
+      </c>
+      <c r="G49" s="6">
+        <v>7</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="6">
+        <v>3</v>
+      </c>
+      <c r="C50" s="6">
+        <v>4</v>
+      </c>
+      <c r="D50" s="6">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6">
+        <v>4</v>
+      </c>
+      <c r="F50" s="6">
+        <v>5</v>
+      </c>
+      <c r="G50" s="6">
+        <v>6</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="6">
+        <v>7</v>
+      </c>
+      <c r="C51" s="6">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6">
+        <v>7</v>
+      </c>
+      <c r="E51" s="6">
+        <v>6</v>
+      </c>
+      <c r="F51" s="6">
+        <v>6</v>
+      </c>
+      <c r="G51" s="6">
+        <v>7</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="6">
+        <v>6</v>
+      </c>
+      <c r="C52" s="6">
+        <v>8</v>
+      </c>
+      <c r="D52" s="6">
+        <v>5</v>
+      </c>
+      <c r="E52" s="6">
+        <v>9</v>
+      </c>
+      <c r="F52" s="6">
+        <v>8</v>
+      </c>
+      <c r="G52" s="6">
+        <v>7</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="6">
+        <v>5</v>
+      </c>
+      <c r="C53" s="6">
+        <v>7</v>
+      </c>
+      <c r="D53" s="6">
+        <v>8</v>
+      </c>
+      <c r="E53" s="6">
+        <v>7</v>
+      </c>
+      <c r="F53" s="6">
+        <v>9</v>
+      </c>
+      <c r="G53" s="6">
+        <v>9</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="6">
+        <v>4</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4</v>
+      </c>
+      <c r="D54" s="6">
+        <v>5</v>
+      </c>
+      <c r="E54" s="6">
+        <v>3</v>
+      </c>
+      <c r="F54" s="6">
+        <v>5</v>
+      </c>
+      <c r="G54" s="6">
+        <v>3</v>
+      </c>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="6">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6">
+        <v>8</v>
+      </c>
+      <c r="D55" s="6">
+        <v>7</v>
+      </c>
+      <c r="E55" s="6">
+        <v>5</v>
+      </c>
+      <c r="F55" s="6">
+        <v>7</v>
+      </c>
+      <c r="G55" s="6">
+        <v>7</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="6">
+        <v>6</v>
+      </c>
+      <c r="C56" s="6">
+        <v>6</v>
+      </c>
+      <c r="D56" s="6">
+        <v>6</v>
+      </c>
+      <c r="E56" s="6">
+        <v>6</v>
+      </c>
+      <c r="F56" s="6">
+        <v>5</v>
+      </c>
+      <c r="G56" s="6">
+        <v>9</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="6">
+        <v>6</v>
+      </c>
+      <c r="C57" s="6">
+        <v>10</v>
+      </c>
+      <c r="D57" s="6">
+        <v>8</v>
+      </c>
+      <c r="E57" s="6">
+        <v>9</v>
+      </c>
+      <c r="F57" s="6">
+        <v>6</v>
+      </c>
+      <c r="G57" s="6">
+        <v>10</v>
+      </c>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="6">
+        <v>3</v>
+      </c>
+      <c r="C58" s="6">
+        <v>4</v>
+      </c>
+      <c r="D58" s="6">
+        <v>4</v>
+      </c>
+      <c r="E58" s="6">
+        <v>4</v>
+      </c>
+      <c r="F58" s="6">
+        <v>4</v>
+      </c>
+      <c r="G58" s="6">
+        <v>6</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="6">
+        <v>5</v>
+      </c>
+      <c r="C59" s="6">
+        <v>4</v>
+      </c>
+      <c r="D59" s="6">
+        <v>4</v>
+      </c>
+      <c r="E59" s="6">
+        <v>4</v>
+      </c>
+      <c r="F59" s="6">
+        <v>8</v>
+      </c>
+      <c r="G59" s="6">
+        <v>7</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="6">
+        <v>7</v>
+      </c>
+      <c r="C60" s="6">
+        <v>9</v>
+      </c>
+      <c r="D60" s="6">
+        <v>5</v>
+      </c>
+      <c r="E60" s="6">
+        <v>6</v>
+      </c>
+      <c r="F60" s="6">
+        <v>9</v>
+      </c>
+      <c r="G60" s="6">
+        <v>6</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="6">
+        <v>6</v>
+      </c>
+      <c r="C61" s="6">
+        <v>6</v>
+      </c>
+      <c r="D61" s="6">
+        <v>6</v>
+      </c>
+      <c r="E61" s="6">
+        <v>5</v>
+      </c>
+      <c r="F61" s="6">
+        <v>5</v>
+      </c>
+      <c r="G61" s="6">
+        <v>6</v>
+      </c>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="6">
+        <v>7</v>
+      </c>
+      <c r="C62" s="6">
+        <v>7</v>
+      </c>
+      <c r="D62" s="6">
+        <v>6</v>
+      </c>
+      <c r="E62" s="6">
+        <v>7</v>
+      </c>
+      <c r="F62" s="6">
+        <v>8</v>
+      </c>
+      <c r="G62" s="6">
+        <v>7</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="6">
+        <v>6</v>
+      </c>
+      <c r="C63" s="6">
+        <v>4</v>
+      </c>
+      <c r="D63" s="6">
+        <v>4</v>
+      </c>
+      <c r="E63" s="6">
+        <v>4</v>
+      </c>
+      <c r="F63" s="6">
+        <v>4</v>
+      </c>
+      <c r="G63" s="6">
+        <v>7</v>
+      </c>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="6">
+        <v>7</v>
+      </c>
+      <c r="C64" s="6">
+        <v>10</v>
+      </c>
+      <c r="D64" s="6">
+        <v>8</v>
+      </c>
+      <c r="E64" s="6">
+        <v>7</v>
+      </c>
+      <c r="F64" s="6">
+        <v>7</v>
+      </c>
+      <c r="G64" s="6">
+        <v>10</v>
+      </c>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="6">
+        <v>6</v>
+      </c>
+      <c r="C65" s="6">
+        <v>6</v>
+      </c>
+      <c r="D65" s="6">
+        <v>8</v>
+      </c>
+      <c r="E65" s="6">
+        <v>6</v>
+      </c>
+      <c r="F65" s="6">
+        <v>9</v>
+      </c>
+      <c r="G65" s="6">
+        <v>8</v>
+      </c>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A66" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="6">
+        <v>4</v>
+      </c>
+      <c r="C66" s="6">
+        <v>4</v>
+      </c>
+      <c r="D66" s="6">
+        <v>3</v>
+      </c>
+      <c r="E66" s="6">
+        <v>3</v>
+      </c>
+      <c r="F66" s="6">
+        <v>3</v>
+      </c>
+      <c r="G66" s="6">
+        <v>4</v>
+      </c>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="6">
+        <f>SUM(B49:B66)</f>
+        <v>103</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" ref="C67:G67" si="6">SUM(C49:C57)</f>
+        <v>59</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="E67" s="6">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="6">
+        <f>SUM(B58:B66)</f>
+        <v>51</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" ref="C68:G68" si="7">SUM(C58:C66)</f>
+        <v>54</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="F68" s="6">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="6">
+        <f>SUM(B49:B66)</f>
+        <v>103</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" ref="C69:G69" si="8">SUM(C49:C66)</f>
+        <v>113</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="E69" s="6">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="F69" s="6">
+        <f t="shared" si="8"/>
+        <v>115</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="8"/>
+        <v>126</v>
       </c>
       <c r="H69" s="6"/>
     </row>
@@ -58084,10 +59754,10 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -59770,8 +61440,8 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
